--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>6.062404833936</v>
+        <v>7.748525324097</v>
       </c>
       <c r="R2">
-        <v>54.561643505424</v>
+        <v>69.73672791687299</v>
       </c>
       <c r="S2">
-        <v>0.09437317702004532</v>
+        <v>0.111258111602459</v>
       </c>
       <c r="T2">
-        <v>0.09437317702004529</v>
+        <v>0.111258111602459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>8.964286992342</v>
+        <v>8.964286992341998</v>
       </c>
       <c r="R3">
-        <v>80.678582931078</v>
+        <v>80.67858293107798</v>
       </c>
       <c r="S3">
-        <v>0.1395466430171615</v>
+        <v>0.1287147684126189</v>
       </c>
       <c r="T3">
-        <v>0.1395466430171615</v>
+        <v>0.1287147684126189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>5.009416080272999</v>
+        <v>5.009416080273001</v>
       </c>
       <c r="R4">
-        <v>45.08474472245699</v>
+        <v>45.084744722457</v>
       </c>
       <c r="S4">
-        <v>0.07798134955691018</v>
+        <v>0.07192828957903905</v>
       </c>
       <c r="T4">
-        <v>0.07798134955691016</v>
+        <v>0.07192828957903905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.390089</v>
       </c>
       <c r="I5">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J5">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>13.37453681596267</v>
+        <v>17.09436107540033</v>
       </c>
       <c r="R5">
-        <v>120.370831343664</v>
+        <v>153.849249678603</v>
       </c>
       <c r="S5">
-        <v>0.2082007990341482</v>
+        <v>0.2454513927166218</v>
       </c>
       <c r="T5">
-        <v>0.2082007990341482</v>
+        <v>0.2454513927166218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.390089</v>
       </c>
       <c r="I6">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J6">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
         <v>19.776506137762</v>
@@ -818,10 +818,10 @@
         <v>177.988555239858</v>
       </c>
       <c r="S6">
-        <v>0.3078599608078778</v>
+        <v>0.2839632878451306</v>
       </c>
       <c r="T6">
-        <v>0.3078599608078777</v>
+        <v>0.2839632878451307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.390089</v>
       </c>
       <c r="I7">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J7">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
         <v>11.05149220933633</v>
       </c>
       <c r="R7">
-        <v>99.46342988402698</v>
+        <v>99.46342988402702</v>
       </c>
       <c r="S7">
-        <v>0.1720380705638569</v>
+        <v>0.1586841498441305</v>
       </c>
       <c r="T7">
-        <v>0.1720380705638569</v>
+        <v>0.1586841498441306</v>
       </c>
     </row>
   </sheetData>
